--- a/backup/EasyLout.xlsx
+++ b/backup/EasyLout.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="540">
   <si>
     <t>&lt;menu xmlns="http://schemas.microsoft.com/office/2006/01/customui" itemSize="normal"&gt;</t>
   </si>
@@ -630,14 +630,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Tab</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Group</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -646,15 +638,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Label</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ButtonSize</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ShowImage</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -663,10 +647,6 @@
   </si>
   <si>
     <t>ImageFile</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Screentip</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -739,14 +719,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>MergeCell</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>B103</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -768,32 +740,8 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ParseCell</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>結合解除</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>B104</t>
@@ -814,10 +762,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>B105</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル境界左移動</t>
     <rPh sb="4" eb="5">
       <t>ヒダリ</t>
@@ -825,28 +769,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>結合されたセルの境界を1列左に移動します
-(先頭を1列削除し、末尾に1列挿入)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MoveColumnsBorder</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B106</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル境界右移動</t>
     <rPh sb="4" eb="5">
       <t>ミギ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>結合されたセルの境界を1列右に移動します
-(先頭に1列挿入し、末尾を1列削除)</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -864,35 +790,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>複数の行に値があれば改行で連結します</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B108</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル境界上移動</t>
     <rPh sb="4" eb="5">
       <t>ウエ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>結合されたセルの境界を1行上に移動します
-(先頭を1行削除し、末尾に1行挿入)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MoveRowsBorder</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B109</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -903,19 +804,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>結合されたセルの境界を1行下に移動します
-(先頭に1行挿入し、末尾を1行削除)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MoveRowsBorder</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>行・列</t>
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
@@ -923,10 +811,6 @@
     <rPh sb="2" eb="3">
       <t>レツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B201</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -941,14 +825,6 @@
     <rPh sb="3" eb="4">
       <t>ハバ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B202</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -980,10 +856,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ChangeWidth</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>幅の拡大</t>
     <rPh sb="0" eb="1">
       <t>ハバ</t>
@@ -1001,25 +873,12 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>セル境界を左に1ピクセル(Ctrlで5倍)ずつ移動します
-複数列の選択時は、先頭列を縮小し最終列を拡大します</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>MoveVerticalBorder</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル境界を右に1ピクセル(Ctrlで5倍)ずつ移動します
 複数列の選択時は、先頭列を拡大し最終列を縮小します</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1069,10 +928,6 @@
       <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AutoColFit</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>B208</t>
@@ -1131,14 +986,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SheetColumnsDelete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>列の削除</t>
     <rPh sb="0" eb="1">
       <t>レツ</t>
@@ -1146,14 +993,6 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1168,14 +1007,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セルの高さをPixelやmm単位で指定が可能です</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>高さの縮小</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>セル(図形)の高さを1ピクセル(Ctrlで5倍)ずつ縮小します
 離れた行にも対応しています
 ※図形選択時は、図形の高さを変更します</t>
@@ -1183,36 +1014,6 @@
       <t>タカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ChangeHeight</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>高さの拡大</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セル(図形)の高さを1ピクセル(Ctrlで5倍)ずつ拡大します
-離れた行にも対応しています
-※図形選択時は、図形の高さを変更します</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ChangeHeight</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>+1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>MoveRowBorderU.png</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>セル境界を上に1ピクセル(Ctrlで5倍)ずつ移動します
@@ -1226,15 +1027,6 @@
   <si>
     <t>MoveRowBorderD.png</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セル境界を下に1ピクセル(Ctrlで5倍)ずつ移動します
-複数行の選択時は、先頭行を拡大し最終行を縮小します</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MoveHorizonBorder</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>高さを揃える</t>
@@ -1260,22 +1052,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AutoRowFit.png</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>結合セルや離れた行にも対応しています</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AutoRowFit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>行の分割</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1287,14 +1067,6 @@
       <t>ブンカツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>行の消去</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択された行を消去します</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SheetRowsInsert</t>
@@ -1311,18 +1083,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SheetRowsDelete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>行の削除</t>
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
@@ -1333,10 +1093,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>横罫線</t>
     <rPh sb="0" eb="3">
       <t>ヨコケイセン</t>
@@ -1344,15 +1100,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>図形</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B301</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1395,22 +1143,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>MoveShape</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>図形</t>
     <rPh sb="0" eb="2">
       <t>ズケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>C1</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1444,14 +1180,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>B302</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1463,10 +1191,6 @@
     <rPh sb="2" eb="4">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ObjectsSelect</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1499,62 +1223,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SelectShapes</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>図形</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>枠線の表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>図形</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>枠線に合わせる</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M31</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B311</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B312</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B313</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DistributeShapeWidth</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B314</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>高さを揃える</t>
     <rPh sb="0" eb="1">
       <t>タカ</t>
@@ -1565,18 +1233,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>B315</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B316</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M32</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>相互変換</t>
     <rPh sb="0" eb="2">
       <t>ソウゴ</t>
@@ -1584,18 +1240,6 @@
     <rPh sb="2" eb="4">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B321</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>セルをテキストボックスに変換</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B322</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1613,18 +1257,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ChangeCommentsToTextboxes</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テキストボックスをコメントに戻す</t>
     <rPh sb="14" eb="15">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ChangeTextboxesToComments</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1660,10 +1296,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ChangeCommentsToInputRules</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>入力規則をコメントに変換</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -1684,10 +1316,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ChangeInputRulesToComments</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>図形変更</t>
     <rPh sb="0" eb="2">
       <t>ズケイ</t>
@@ -1695,14 +1323,6 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クリップボード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B401</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1714,14 +1334,6 @@
       <t>ハリツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PasteTableWithSourceFormatting</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>結合セルの横幅を見たままに近い形で貼付けます
@@ -1765,66 +1377,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PasteAppearance</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クリップボード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M41</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストコピー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クリップボード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B411A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストでコピー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プレーンテキストで値をコピーします</t>
     <rPh sb="9" eb="10">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B411B</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストでコピー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クリップボード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B412</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1861,33 +1417,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CopyFormula</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M42</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキスト貼付け</t>
-    <rPh sb="4" eb="6">
-      <t>ハリツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PasteTextOnly</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B421A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テキストの貼付け</t>
     <rPh sb="5" eb="7">
       <t>ハリツ</t>
@@ -1895,34 +1424,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PasteTextOnly</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プレーンテキストを貼付けます</t>
     <rPh sb="9" eb="11">
       <t>ハリツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PasteText</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B421B</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PasteTextOnly</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PasteText</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B422</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1980,18 +1485,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ApplyFormat</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M51</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2018,14 +1515,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B511</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>大文字に変換</t>
     <rPh sb="0" eb="3">
       <t>オオモジ</t>
@@ -2033,18 +1522,6 @@
     <rPh sb="4" eb="6">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>UpperCase</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B512</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2058,10 +1535,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>先頭のみ大文字に変換</t>
     <rPh sb="0" eb="2">
       <t>セントウ</t>
@@ -2069,30 +1542,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ひらがなに変換</t>
     <rPh sb="5" eb="7">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>カタカナに変換</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ConvertStr</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2103,10 +1556,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>半角に変換</t>
     <rPh sb="0" eb="2">
       <t>ハンカク</t>
@@ -2114,26 +1563,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>カタカナのみ全角に変換</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>WideOnlyKana</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>カタカナ以外半角に変換</t>
     <rPh sb="4" eb="6">
       <t>イガイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NarrowExceptKana</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B51a</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2153,14 +1586,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ConvertStr</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B51b</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>末尾の空白を削除</t>
     <rPh sb="0" eb="2">
       <t>マツビ</t>
@@ -2174,14 +1599,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>RTrim</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>M52</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>補助画面</t>
     <rPh sb="0" eb="2">
       <t>ホジョ</t>
@@ -2189,14 +1606,6 @@
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CreateFormBlankForm</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B521A</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2213,10 +1622,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CreateFormBlankForm</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>入力補助画面(Shift+F2)</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -2227,30 +1632,6 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入力補助画面を表示します</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B521</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B522</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>選択範囲の変更や記憶</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ReverseCell.png</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2286,22 +1667,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>M53</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>整理/クリア</t>
     <rPh sb="0" eb="2">
       <t>セイリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Clear</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B531</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2332,18 +1701,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SelectHomePosition</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>かんたんレイアウト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B532</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>最後のセルの最適化</t>
     <rPh sb="0" eb="2">
       <t>サイゴ</t>
@@ -2364,10 +1721,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>UsedRange</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザ定義スタイルの削除</t>
     <rPh sb="3" eb="5">
       <t>テイギ</t>
@@ -2385,10 +1738,6 @@
     <rPh sb="14" eb="16">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DeleteUserStyles</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2415,10 +1764,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>DeleteNameObjects</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザ設定のビューの削除</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
@@ -2426,14 +1771,6 @@
     <rPh sb="10" eb="12">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザ設定のビューをすべて削除します</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DeleteUserViews</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2473,10 +1810,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SelectFlatShapes</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>罫線と同化した直線の選択</t>
     <rPh sb="0" eb="2">
       <t>ケイセン</t>
@@ -2510,10 +1843,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SelectFlatArrows</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>エラーの数式の選択</t>
     <rPh sb="4" eb="6">
       <t>スウシキ</t>
@@ -2541,10 +1870,6 @@
     <rPh sb="38" eb="40">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SelectErrFormula</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2580,10 +1905,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>MergeFormatConditions</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>エラーの条件付き書式の削除</t>
     <rPh sb="4" eb="7">
       <t>ジョウケンツ</t>
@@ -2607,10 +1928,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>M531</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>標準フォントの変更</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
@@ -2618,18 +1935,6 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>StyleGalleryClassic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B5311</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2644,14 +1949,6 @@
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ChangeNormalFont</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B5312</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2678,14 +1975,6 @@
     <rPh sb="15" eb="17">
       <t>テキヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ApplyNormalFont</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B5313</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2731,14 +2020,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ApplyNormalFontToShape</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>B53A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>A1⇔R1C1切替</t>
     <rPh sb="7" eb="9">
       <t>キリカエ</t>
@@ -2768,8 +2049,765 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Tab</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowImage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Screentip</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MergeCell</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>かんたんレイアウト</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ParseCell</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結合を解除して中央寄せ</t>
+    <rPh sb="7" eb="10">
+      <t>チュウオウヨ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>結合を解除して、値の入力されたセルは選択範囲で中央寄せを行います</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnmergeCells</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B105</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B106</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結合されたセルの境界を1列左に移動します
+(先頭を1列削除し、末尾に1列挿入)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MoveColumnsBorder</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>結合されたセルの境界を1列右に移動します
+(先頭に1列挿入し、末尾を1列削除)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B108</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>複数の行に値があれば改行で連結します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B109</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結合されたセルの境界を1行上に移動します
+(先頭を1行削除し、末尾に1行挿入)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveRowsBorder</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B110</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結合されたセルの境界を1行下に移動します
+(先頭に1行挿入し、末尾を1行削除)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveRowsBorder</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B201</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B202</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeWidth</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ChangeWidth</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セル境界を左に1ピクセル(Ctrlで5倍)ずつ移動します
+複数列の選択時は、先頭列を縮小し最終列を拡大します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoColFit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SheetColumnsDelete</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルの高さをPixelやmm単位で指定が可能です</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高さの縮小</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeHeight</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>高さの拡大</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セル(図形)の高さを1ピクセル(Ctrlで5倍)ずつ拡大します
+離れた行にも対応しています
+※図形選択時は、図形の高さを変更します</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveRowBorderU.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MoveHorizonBorder</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セル境界を下に1ピクセル(Ctrlで5倍)ずつ移動します
+複数行の選択時は、先頭行を拡大し最終行を縮小します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoRowFit.png</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoRowFit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行の分割</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行の消去</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択された行を消去します</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SheetRowsDelete</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>図形</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B301</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoveShape</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ObjectsSelect</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectShapes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>枠線の表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>図形</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>枠線に合わせる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>図形</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>M31</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B311</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B312</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B313</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DistributeShapeWidth</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B314</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B315</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B316</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M32</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B321</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セルをテキストボックスに変換</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B322</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeCommentsToTextboxes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeTextboxesToComments</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ChangeCommentsToInputRules</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeInputRulesToComments</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリップボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B401</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PasteTableWithSourceFormatting</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PasteAppearance</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M41</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストコピー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリップボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B411</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストでコピー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリップボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B412</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CopyFormula</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリップボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B421</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PasteTextOnly</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PasteText</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M51</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B511</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>UpperCase</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B512</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カタカナに変換</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カタカナのみ全角に変換</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WideOnlyKana</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NarrowExceptKana</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B51a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ConvertStr</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B51b</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RTrim</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M52</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CreateFormBlankForm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B521</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CreateFormBlankForm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力補助画面を表示します</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B522</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>選択範囲の変更や記憶</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ReverseCell.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M53</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B531</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectHomePosition</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリップボード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B532</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ApplyFormat</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DeleteUserStyles</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DeleteNameObjects</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザ設定のビューをすべて削除します</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DeleteUserViews</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectFlatShapes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectFlatArrows</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectErrFormula</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MergeFormatConditions</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>M531</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>StyleGalleryClassic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B5311</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ChangeNormalFont</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B5312</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ApplyNormalFont</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B5313</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ApplyNormalFontToShape</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B53A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>かんたんレイアウト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B53B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>UsedRange</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>M54</t>
@@ -2793,6 +2831,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>Help</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>B542</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2810,13 +2852,6 @@
   </si>
   <si>
     <t>B543</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>設定</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3280,40 +3315,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>102</v>
@@ -3321,16 +3356,16 @@
     </row>
     <row r="2" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -3350,25 +3385,25 @@
         <v>領域操作</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3384,28 +3419,28 @@
         <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3425,25 +3460,25 @@
         <v>行毎解除</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3455,74 +3490,74 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="H6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="str">
-        <f t="shared" ref="J6:J18" si="0">D6</f>
-        <v>横方向に結合</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>235</v>
+        <f>D6</f>
+        <v>結合を解除して中央寄せ</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -3535,34 +3570,32 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>セル境界左移動</v>
+        <f t="shared" ref="J7:J19" si="0">D7</f>
+        <v>横方向に結合</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M7" s="5">
-        <v>-1</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3575,34 +3608,34 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>セル境界右移動</v>
+        <v>セル境界左移動</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>107</v>
+        <v>363</v>
+      </c>
+      <c r="M8" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -3615,32 +3648,34 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>縦方向に結合</v>
+        <v>セル境界右移動</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -3653,34 +3688,32 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>セル境界上移動</v>
+        <v>縦方向に結合</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -3693,34 +3726,34 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>セル境界下移動</v>
+        <v>セル境界上移動</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>107</v>
+        <v>370</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3731,34 +3764,36 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>幅の一覧</v>
+        <v>セル境界下移動</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>374</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -3769,36 +3804,34 @@
       <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="H13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>幅の縮小</v>
+        <v>幅の一覧</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M13" s="5">
-        <v>-1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -3811,34 +3844,34 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>幅の拡大</v>
+        <v>幅の縮小</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>267</v>
+        <v>378</v>
+      </c>
+      <c r="M14" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>232</v>
+        <v>376</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -3846,39 +3879,39 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>セル境界左移動</v>
+        <v>幅の拡大</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M15" s="5">
-        <v>-1</v>
+        <v>379</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -3886,39 +3919,39 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>セル境界右移動</v>
+        <v>セル境界左移動</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>107</v>
+        <v>237</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -3929,34 +3962,36 @@
       <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>幅を揃える</v>
+        <v>セル境界右移動</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>277</v>
+        <v>239</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3967,34 +4002,34 @@
       <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="H18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>文字列の幅に合わせる</v>
+        <v>幅を揃える</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>282</v>
+        <v>242</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -4007,32 +4042,32 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f>D19</f>
-        <v>列の分割</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>283</v>
+        <f t="shared" si="0"/>
+        <v>文字列の幅に合わせる</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -4045,193 +4080,193 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J20" s="4" t="str">
         <f>D20</f>
-        <v>列の消去</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>286</v>
+        <v>列の分割</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>288</v>
+      <c r="F21" s="4">
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>199</v>
+        <v>56</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>D21</f>
+        <v>列の消去</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
-        <v>0</v>
+      <c r="F24" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="str">
-        <f t="shared" ref="J24:J30" si="1">D24</f>
-        <v>高さの一覧</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>296</v>
+        <v>198</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -4242,36 +4277,34 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="H25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>高さの縮小</v>
+        <f t="shared" ref="J25:J31" si="1">D25</f>
+        <v>高さの一覧</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="M25" s="5">
-        <v>-1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -4284,34 +4317,34 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>高さの拡大</v>
+        <v>高さの縮小</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>304</v>
+        <v>392</v>
+      </c>
+      <c r="M26" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -4319,39 +4352,39 @@
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>セル境界上移動</v>
+        <v>高さの拡大</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="M27" s="5">
-        <v>-1</v>
+        <v>392</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -4359,39 +4392,39 @@
       <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="9">
         <v>1</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>セル境界下移動</v>
+        <v>セル境界上移動</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>107</v>
+        <v>397</v>
+      </c>
+      <c r="M28" s="5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -4402,34 +4435,36 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="J29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>高さを揃える</v>
+        <v>セル境界下移動</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>313</v>
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -4440,34 +4475,34 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>文字の高さに合わせる</v>
+        <v>高さを揃える</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>317</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -4480,32 +4515,32 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>53</v>
+        <v>399</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>D31</f>
-        <v>行の分割</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>318</v>
+        <f t="shared" si="1"/>
+        <v>文字の高さに合わせる</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -4518,227 +4553,230 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J32" s="4" t="str">
         <f>D32</f>
-        <v>行の消去</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>320</v>
+        <v>行の分割</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>323</v>
+      <c r="F33" s="4">
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>231</v>
+        <v>59</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f>D33</f>
+        <v>行の消去</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>211</v>
+        <v>405</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="L34" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="J36" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>334</v>
+        <v>411</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M36" s="4"/>
+        <v>384</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -4747,192 +4785,194 @@
         <v>1</v>
       </c>
       <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4" t="str">
-        <f>D38</f>
-        <v>図形選択</v>
+      <c r="J38" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>342</v>
+      <c r="F39" s="4">
+        <v>1</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>351</v>
+        <v>416</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="str">
+        <f>D39</f>
+        <v>図形選択</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
+      <c r="F42" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="L42" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M42" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -4944,30 +4984,28 @@
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="9"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M43" s="4">
-        <v>1</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -4979,30 +5017,30 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="4" t="s">
         <v>145</v>
       </c>
       <c r="M44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -5014,28 +5052,30 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="9"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="M45" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>362</v>
+        <v>240</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -5047,28 +5087,28 @@
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="9"/>
       <c r="L46" s="4" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -5080,30 +5120,28 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="9"/>
       <c r="L47" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M47" s="4">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -5115,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5124,21 +5162,21 @@
         <v>151</v>
       </c>
       <c r="M48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -5150,28 +5188,30 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="M49" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -5182,27 +5222,29 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -5216,24 +5258,24 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="9"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -5249,22 +5291,22 @@
       <c r="J52" s="4"/>
       <c r="K52" s="9"/>
       <c r="L52" s="4" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -5280,22 +5322,22 @@
       <c r="J53" s="4"/>
       <c r="K53" s="9"/>
       <c r="L53" s="4" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -5309,26 +5351,24 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="9" t="s">
-        <v>376</v>
-      </c>
+      <c r="K54" s="9"/>
       <c r="L54" s="4" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -5343,25 +5383,25 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="9" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -5372,40 +5412,32 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="9" t="s">
         <v>289</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>383</v>
+        <v>161</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="E57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -5414,38 +5446,39 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="J57" s="4" t="str">
-        <f>D57</f>
-        <v>見たまま貼付け</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>387</v>
+        <v>445</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="M57" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -5454,28 +5487,35 @@
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="9"/>
+        <v>449</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <f>D58</f>
+        <v>見たまま貼付け</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="L58" s="4" t="s">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -5484,35 +5524,31 @@
         <v>1</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>397</v>
-      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="4" t="s">
-        <v>163</v>
+        <v>454</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -5524,14 +5560,14 @@
         <v>0</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
         <v>162</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>163</v>
@@ -5540,16 +5576,16 @@
     </row>
     <row r="61" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -5569,25 +5605,25 @@
         <v>数式をテキストでコピー</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -5599,28 +5635,32 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="9"/>
+      <c r="J62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="L62" s="4" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>411</v>
+        <v>301</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -5629,35 +5669,36 @@
         <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>412</v>
+        <v>166</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="4" t="s">
-        <v>165</v>
+      <c r="J63" s="4" t="str">
+        <f t="shared" ref="J63:J74" si="2">D63</f>
+        <v>文字種の変換</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>270</v>
+        <v>467</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -5668,33 +5709,32 @@
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>416</v>
-      </c>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>413</v>
-      </c>
+      <c r="J64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>大文字に変換</v>
+      </c>
+      <c r="K64" s="9"/>
       <c r="L64" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="M64" s="4"/>
+        <v>469</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -5708,29 +5748,29 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4" t="str">
-        <f>D65</f>
-        <v>書式や数式の反映</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>420</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>小文字に変換</v>
+      </c>
+      <c r="K65" s="9"/>
       <c r="L65" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="M65" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>423</v>
+        <v>168</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>424</v>
+        <v>305</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -5739,36 +5779,34 @@
         <v>1</v>
       </c>
       <c r="G66" s="4">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="str">
-        <f t="shared" ref="J66:J77" si="2">D66</f>
-        <v>文字種の変換</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>425</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>先頭のみ大文字に変換</v>
+      </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="M66" s="4"/>
+        <v>473</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>270</v>
+        <v>438</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>427</v>
+        <v>170</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>428</v>
+        <v>306</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -5783,28 +5821,28 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>大文字に変換</v>
-      </c>
-      <c r="K67" s="9"/>
+        <v>ひらがなに変換</v>
+      </c>
+      <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>430</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>260</v>
+        <v>474</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -5819,28 +5857,28 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>小文字に変換</v>
-      </c>
-      <c r="K68" s="9"/>
+        <v>カタカナに変換</v>
+      </c>
+      <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -5855,28 +5893,28 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>先頭のみ大文字に変換</v>
+        <v>全角に変換</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>437</v>
+        <v>308</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -5891,28 +5929,28 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>ひらがなに変換</v>
+        <v>半角に変換</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
@@ -5927,28 +5965,28 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>カタカナに変換</v>
+        <v>カタカナのみ全角に変換</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>173</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>441</v>
+        <v>309</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -5963,28 +6001,28 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>全角に変換</v>
+        <v>カタカナ以外半角に変換</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -5999,28 +6037,28 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>半角に変換</v>
+        <v>先頭と末尾の空白を削除</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>232</v>
+        <v>484</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>178</v>
+        <v>485</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -6035,28 +6073,28 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>カタカナのみ全角に変換</v>
+        <v>末尾の空白を削除</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>179</v>
+        <v>487</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -6065,34 +6103,31 @@
         <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>カタカナ以外半角に変換</v>
-      </c>
+      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
@@ -6101,34 +6136,35 @@
         <v>1</v>
       </c>
       <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>先頭と末尾の空白を削除</v>
-      </c>
-      <c r="K76" s="4"/>
+      <c r="J76" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="L76" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -6137,34 +6173,36 @@
         <v>1</v>
       </c>
       <c r="G77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="I77" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>末尾の空白を削除</v>
-      </c>
-      <c r="K77" s="4"/>
+        <f>D77</f>
+        <v>選択範囲の変更や記憶</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="L77" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>453</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>270</v>
+        <v>467</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -6176,28 +6214,28 @@
         <v>1</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>458</v>
+        <v>317</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -6206,83 +6244,70 @@
         <v>1</v>
       </c>
       <c r="G79" s="4">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>461</v>
+      <c r="J79" s="4" t="str">
+        <f t="shared" ref="J79:J88" si="3">D79</f>
+        <v>A1選択</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>181</v>
+        <v>501</v>
       </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="D80" s="4" t="str">
-        <f>D79</f>
-        <v>入力補助画面</v>
+        <v>503</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" ref="E80:L80" si="3">E79</f>
         <v>0</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>CreateFormBlankForm</v>
-      </c>
-      <c r="I80" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>入力補助画面(Shift+F2)</v>
-      </c>
-      <c r="K80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>入力補助画面を表示します</v>
-      </c>
-      <c r="L80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>OpenEdit</v>
+        <f>D80</f>
+        <v>書式や数式の反映</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -6293,34 +6318,34 @@
       <c r="G81" s="4">
         <v>1</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4" t="s">
-        <v>466</v>
-      </c>
+      <c r="H81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I81" s="4"/>
       <c r="J81" s="4" t="str">
-        <f>D81</f>
-        <v>選択範囲の変更や記憶</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>467</v>
+        <f t="shared" si="3"/>
+        <v>ユーザ定義スタイルの削除</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -6332,28 +6357,33 @@
         <v>1</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>470</v>
+        <v>186</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="J82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>ユーザ定義の名前の削除</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="L82" s="4" t="s">
-        <v>288</v>
+        <v>506</v>
       </c>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>472</v>
+        <v>325</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -6362,34 +6392,36 @@
         <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4" t="str">
-        <f t="shared" ref="J83:J92" si="4">D83</f>
-        <v>A1選択</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>473</v>
+        <f t="shared" si="3"/>
+        <v>ユーザ設定のビューの削除</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="M83" s="4"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>477</v>
+        <v>326</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -6403,29 +6435,29 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>最後のセルの最適化</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>478</v>
+        <f t="shared" si="3"/>
+        <v>面積ゼロの図形の選択</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>480</v>
+        <v>328</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -6434,74 +6466,64 @@
         <v>1</v>
       </c>
       <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>ユーザ定義スタイルの削除</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>481</v>
+        <f t="shared" si="3"/>
+        <v>罫線と同化した直線の選択</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>ユーザ定義の名前の削除</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>484</v>
+        <f t="shared" si="3"/>
+        <v>エラーの数式の選択</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>486</v>
+        <v>332</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -6513,69 +6535,71 @@
         <v>1</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>ユーザ設定のビューの削除</v>
+        <f t="shared" si="3"/>
+        <v>条件付き書式の統合</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>487</v>
+        <v>333</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
+      <c r="C88" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6">
         <v>1</v>
       </c>
-      <c r="G88" s="4">
-        <v>0</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>面積ゼロの図形の選択</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="M88" s="4"/>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>エラーの条件付き書式の削除</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>190</v>
+        <v>513</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>492</v>
+        <v>336</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -6584,64 +6608,67 @@
         <v>1</v>
       </c>
       <c r="G89" s="4">
-        <v>0</v>
-      </c>
-      <c r="H89" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>罫線と同化した直線の選択</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>493</v>
-      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>191</v>
+        <v>515</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>エラーの数式の選択</v>
+        <f>D90</f>
+        <v>{FONTNAME}に変更</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>496</v>
+        <v>338</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>192</v>
+        <v>517</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -6650,74 +6677,70 @@
         <v>1</v>
       </c>
       <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>条件付き書式の統合</v>
+        <f>D91</f>
+        <v>選択されたセルに標準フォントを適用</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>499</v>
+        <v>340</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:13" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
-      <c r="F92" s="6">
+      <c r="C92" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
         <v>1</v>
       </c>
-      <c r="G92" s="6">
-        <v>1</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>エラーの条件付き書式の削除</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="M92" s="6"/>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4" t="str">
+        <f>D92</f>
+        <v>図形に標準フォントを適用</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C93" s="4" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>504</v>
+        <v>343</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -6726,31 +6749,34 @@
         <v>1</v>
       </c>
       <c r="G93" s="4">
-        <v>1</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="J93" s="4" t="str">
+        <f>D93</f>
+        <v>A1⇔R1C1切替</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="L93" s="4" t="s">
-        <v>506</v>
+        <v>195</v>
       </c>
       <c r="M93" s="4"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C94" s="4" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>508</v>
+        <v>319</v>
       </c>
       <c r="E94" s="4">
         <v>0</v>
@@ -6765,64 +6791,61 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="str">
         <f>D94</f>
-        <v>{FONTNAME}に変更</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>509</v>
+        <v>最後のセルの最適化</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>512</v>
+        <v>525</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>526</v>
       </c>
       <c r="E95" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>0</v>
-      </c>
-      <c r="H95" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="4" t="str">
-        <f>D95</f>
-        <v>選択されたセルに標準フォントを適用</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -6831,34 +6854,33 @@
         <v>1</v>
       </c>
       <c r="G96" s="4">
-        <v>0</v>
-      </c>
-      <c r="H96" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="4" t="str">
-        <f>D96</f>
-        <v>図形に標準フォントを適用</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>517</v>
-      </c>
+      <c r="J96" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K96" s="9"/>
       <c r="L96" s="4" t="s">
-        <v>518</v>
+        <v>196</v>
       </c>
       <c r="M96" s="4"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E97" s="4">
         <v>0</v>
@@ -6867,37 +6889,37 @@
         <v>1</v>
       </c>
       <c r="G97" s="4">
-        <v>0</v>
-      </c>
-      <c r="H97" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="str">
         <f>D97</f>
-        <v>A1⇔R1C1切替</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>521</v>
-      </c>
+        <v>オンラインヘルプ</v>
+      </c>
+      <c r="K97" s="9"/>
       <c r="L97" s="4" t="s">
-        <v>195</v>
+        <v>534</v>
       </c>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="1:13" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>522</v>
+        <v>389</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>524</v>
+        <v>535</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="E98" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -6906,28 +6928,31 @@
         <v>1</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="J98" s="4" t="str">
+        <f>D98</f>
+        <v>設定</v>
+      </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4" t="s">
-        <v>506</v>
+        <v>197</v>
       </c>
       <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
@@ -6936,125 +6961,63 @@
         <v>1</v>
       </c>
       <c r="G99" s="4">
-        <v>1</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="K99" s="9"/>
+      <c r="J99" s="4" t="str">
+        <f>D99</f>
+        <v>バージョン</v>
+      </c>
+      <c r="K99" s="4"/>
       <c r="L99" s="4" t="s">
-        <v>196</v>
+        <v>539</v>
       </c>
       <c r="M99" s="4"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>530</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4" t="str">
-        <f>D100</f>
-        <v>オンラインヘルプ</v>
-      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="9"/>
-      <c r="L100" s="4" t="s">
-        <v>531</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>1</v>
-      </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>534</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4" t="str">
-        <f>D101</f>
-        <v>設定</v>
-      </c>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-      <c r="G102" s="4">
-        <v>0</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="4" t="str">
-        <f>D102</f>
-        <v>バージョン</v>
-      </c>
+      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="4" t="s">
-        <v>537</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="4"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -7088,9 +7051,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
